--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -324,13 +324,22 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>No elimina las lineas de producto</t>
+  </si>
+  <si>
+    <t>No muestra valores de primer línea</t>
+  </si>
+  <si>
+    <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,13 +354,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -363,10 +384,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -380,8 +402,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,14 +692,14 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -727,7 +756,9 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -738,7 +769,9 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -749,7 +782,9 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -765,13 +800,15 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -793,7 +830,9 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -820,13 +859,15 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
@@ -848,7 +889,9 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
@@ -859,7 +902,9 @@
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
@@ -870,7 +915,9 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -908,13 +955,15 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -333,13 +333,31 @@
   </si>
   <si>
     <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
+  </si>
+  <si>
+    <t>Validar contingencia - NC - reenvío - Estados</t>
+  </si>
+  <si>
+    <t>validar ROLLBACK</t>
+  </si>
+  <si>
+    <t>validar central y externa</t>
+  </si>
+  <si>
+    <t>validar botones exportar - NC</t>
+  </si>
+  <si>
+    <t>Validar interna auto y externa</t>
+  </si>
+  <si>
+    <t>Validar estado y accion - contingencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +374,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +430,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -383,12 +444,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -396,22 +486,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,598 +796,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="D1" s="9">
+        <f>A4/49</f>
+        <v>0.34693877551020408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <f>SUM(A5:A53)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f>IF(D5="OK",1,0)</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f t="shared" ref="A6:A53" si="0">IF(D6="OK",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -329,9 +329,6 @@
     <t>No elimina las lineas de producto</t>
   </si>
   <si>
-    <t>No muestra valores de primer línea</t>
-  </si>
-  <si>
     <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
   </si>
   <si>
@@ -347,10 +344,19 @@
     <t>validar botones exportar - NC</t>
   </si>
   <si>
-    <t>Validar interna auto y externa</t>
-  </si>
-  <si>
-    <t>Validar estado y accion - contingencia</t>
+    <t>Validar inventarios - consumibles - cajas - reporte ventas</t>
+  </si>
+  <si>
+    <t>Validar estado - acción - contingencia</t>
+  </si>
+  <si>
+    <t>Hay dudas con las porciones que se devuelven a Central.</t>
+  </si>
+  <si>
+    <t>Validar estimación de costos y cantidades</t>
+  </si>
+  <si>
+    <t>Validar estado de la NC cuando es rechazada.</t>
   </si>
 </sst>
 </file>
@@ -808,6 +814,7 @@
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="65" style="2" customWidth="1"/>
+    <col min="5" max="5" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -816,13 +823,13 @@
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.34693877551020408</v>
+        <v>0.61224489795918369</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -833,13 +840,15 @@
         <f>IF(D5="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -933,29 +942,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>101</v>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -965,13 +976,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
@@ -1042,7 +1055,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -1050,7 +1063,9 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
@@ -1110,20 +1125,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -1131,14 +1148,16 @@
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>38</v>
@@ -1146,7 +1165,9 @@
       <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
@@ -1162,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1213,7 +1234,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1281,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1298,7 +1319,7 @@
         <v>57</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1315,7 +1336,7 @@
         <v>59</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1332,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1340,7 +1361,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>61</v>
@@ -1348,29 +1369,35 @@
       <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>65</v>
@@ -1378,7 +1405,9 @@
       <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
@@ -1409,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1434,7 +1463,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>73</v>
@@ -1442,14 +1471,16 @@
       <c r="C42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>75</v>
@@ -1457,7 +1488,9 @@
       <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
@@ -1513,7 +1546,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>83</v>
@@ -1521,14 +1554,16 @@
       <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>85</v>
@@ -1536,7 +1571,9 @@
       <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
@@ -1558,7 +1595,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>89</v>
@@ -1566,7 +1603,9 @@
       <c r="C50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -1588,16 +1627,16 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>107</v>
+      <c r="D52" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1614,7 +1653,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>validar ROLLBACK</t>
-  </si>
-  <si>
-    <t>validar central y externa</t>
   </si>
   <si>
     <t>validar botones exportar - NC</t>
@@ -805,7 +802,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:D53"/>
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,13 +820,13 @@
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.61224489795918369</v>
+        <v>0.65306122448979587</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -838,16 +835,16 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f>IF(D5="OK",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -949,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -983,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1132,7 +1129,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1344,16 +1341,16 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>104</v>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1390,7 +1387,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -1438,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1653,7 +1650,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Validar inventarios - consumibles - cajas - reporte ventas</t>
   </si>
   <si>
-    <t>Validar estado - acción - contingencia</t>
-  </si>
-  <si>
     <t>Hay dudas con las porciones que se devuelven a Central.</t>
   </si>
   <si>
@@ -354,6 +351,12 @@
   </si>
   <si>
     <t>Validar estado de la NC cuando es rechazada.</t>
+  </si>
+  <si>
+    <t>Validar acciones y estados</t>
+  </si>
+  <si>
+    <t>Validar inventario</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -515,6 +518,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,13 +826,13 @@
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.65306122448979587</v>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -946,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1007,13 +1013,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -1120,16 +1128,16 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>106</v>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1387,7 +1395,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -1530,13 +1538,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
@@ -1650,7 +1660,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -326,16 +326,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>No elimina las lineas de producto</t>
-  </si>
-  <si>
     <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
   </si>
   <si>
     <t>Validar contingencia - NC - reenvío - Estados</t>
-  </si>
-  <si>
-    <t>validar ROLLBACK</t>
   </si>
   <si>
     <t>validar botones exportar - NC</t>
@@ -807,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,13 +820,13 @@
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.67346938775510201</v>
+        <v>0.75510204081632648</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -952,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -986,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1020,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1030,29 +1024,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1188,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1239,7 +1233,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1298,16 +1292,16 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>103</v>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1315,16 +1309,16 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>103</v>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1332,16 +1326,16 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>103</v>
+      <c r="D34" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1395,7 +1389,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -1421,13 +1415,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -1443,7 +1437,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1545,7 +1539,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1589,13 +1583,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
@@ -1621,13 +1615,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1660,7 +1654,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>Validar contingencia - NC - reenvío - Estados</t>
-  </si>
-  <si>
-    <t>validar botones exportar - NC</t>
   </si>
   <si>
     <t>Validar inventarios - consumibles - cajas - reporte ventas</t>
@@ -517,11 +514,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Texto explicativo" xfId="4" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +534,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -801,38 +798,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="65" style="2" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C1" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.75510204081632648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>IF(D5="OK",1,0)</f>
         <v>1</v>
@@ -849,7 +846,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f t="shared" ref="A6:A53" si="0">IF(D6="OK",1,0)</f>
         <v>1</v>
@@ -866,7 +863,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -883,7 +880,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -900,7 +897,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -917,7 +914,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -934,7 +931,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -946,12 +943,12 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -968,7 +965,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -980,12 +977,12 @@
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1002,10 +999,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
@@ -1014,27 +1010,28 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1051,7 +1048,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1068,7 +1065,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1085,7 +1082,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1102,7 +1099,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1119,7 +1116,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1136,7 +1133,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1153,7 +1150,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1170,7 +1167,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1187,7 +1184,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1204,7 +1201,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1221,7 +1218,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1238,7 +1235,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1255,7 +1252,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1272,7 +1269,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1289,7 +1286,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1306,7 +1303,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1323,7 +1320,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1340,7 +1337,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1357,7 +1354,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1374,7 +1371,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1389,11 +1386,11 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1410,39 +1407,39 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>102</v>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1459,7 +1456,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1476,7 +1473,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1493,7 +1490,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1510,7 +1507,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1527,7 +1524,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1539,12 +1536,12 @@
         <v>82</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1561,7 +1558,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1578,7 +1575,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1593,7 +1590,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1610,7 +1607,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1625,7 +1622,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1642,7 +1639,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1654,12 +1651,12 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
-  </si>
-  <si>
-    <t>Validar contingencia - NC - reenvío - Estados</t>
-  </si>
-  <si>
-    <t>Validar inventarios - consumibles - cajas - reporte ventas</t>
   </si>
   <si>
     <t>Hay dudas con las porciones que se devuelven a Central.</t>
@@ -799,7 +793,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,13 +811,13 @@
       </c>
       <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.83673469387755106</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -943,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -967,17 +961,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>102</v>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1001,7 +994,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
@@ -1010,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1220,17 +1213,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>101</v>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1386,7 +1378,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -1536,7 +1528,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1651,7 +1643,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tropical\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
   </si>
   <si>
     <t>Validar contingencia - NC - reenvío - Estados</t>
@@ -356,8 +353,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +372,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,17 +408,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -471,14 +456,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -495,33 +479,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Texto explicativo" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,39 +778,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="65" style="2" customWidth="1"/>
-    <col min="5" max="5" width="110.7109375" customWidth="1"/>
+    <col min="5" max="5" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <f>A4/49</f>
-        <v>0.75510204081632648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+        <v>0.77551020408163263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <f>SUM(A5:A53)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <f>IF(D5="OK",1,0)</f>
         <v>1</v>
       </c>
@@ -849,8 +826,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <f t="shared" ref="A6:A53" si="0">IF(D6="OK",1,0)</f>
         <v>1</v>
       </c>
@@ -866,8 +843,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -883,8 +860,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -900,8 +877,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -917,8 +894,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -934,25 +911,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>105</v>
+      <c r="D11" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -968,25 +945,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>103</v>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1002,40 +979,40 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>107</v>
+      <c r="D15" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1051,8 +1028,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1068,8 +1045,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1085,8 +1062,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1102,8 +1079,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1119,15 +1096,15 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1136,8 +1113,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1153,8 +1130,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1170,25 +1147,25 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>100</v>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1204,8 +1181,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1221,25 +1198,25 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>101</v>
+      <c r="D28" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1255,8 +1232,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1272,8 +1249,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1289,8 +1266,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1306,8 +1283,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1323,8 +1300,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1340,8 +1317,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1357,8 +1334,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1374,27 +1351,27 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>104</v>
+      <c r="D37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1410,40 +1387,40 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>102</v>
+      <c r="D40" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1459,8 +1436,8 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1476,8 +1453,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1493,8 +1470,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1510,8 +1487,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1527,25 +1504,25 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>108</v>
+      <c r="D46" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1561,8 +1538,8 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1578,23 +1555,23 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1610,23 +1587,23 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1642,24 +1619,24 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>106</v>
+      <c r="D53" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -326,28 +326,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Validar contingencia - NC - reenvío - Estados</t>
-  </si>
-  <si>
     <t>validar botones exportar - NC</t>
   </si>
   <si>
-    <t>Validar inventarios - consumibles - cajas - reporte ventas</t>
-  </si>
-  <si>
     <t>Hay dudas con las porciones que se devuelven a Central.</t>
-  </si>
-  <si>
-    <t>Validar estimación de costos y cantidades</t>
-  </si>
-  <si>
-    <t>Validar estado de la NC cuando es rechazada.</t>
-  </si>
-  <si>
-    <t>Validar acciones y estados</t>
-  </si>
-  <si>
-    <t>Validar inventario</t>
   </si>
 </sst>
 </file>
@@ -778,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,13 +779,13 @@
       </c>
       <c r="D1" s="7">
         <f>A4/49</f>
-        <v>0.77551020408163263</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <f>SUM(A5:A53)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
@@ -914,16 +896,16 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>104</v>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -948,7 +930,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -957,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -982,7 +964,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
@@ -991,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -999,7 +981,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>22</v>
@@ -1007,7 +989,9 @@
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -1201,7 +1185,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>46</v>
@@ -1210,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1366,7 +1350,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -1390,7 +1374,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>67</v>
@@ -1398,7 +1382,9 @@
       <c r="C39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
@@ -1414,7 +1400,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1507,16 +1493,16 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>107</v>
+      <c r="D46" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1558,15 +1544,17 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
@@ -1590,15 +1578,17 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
@@ -1622,7 +1612,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>95</v>
@@ -1631,7 +1621,7 @@
         <v>96</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/doc/Pruebas finales tsno.xlsx
+++ b/doc/Pruebas finales tsno.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tropical\doc\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>Aceptacion de Facturas</t>
   </si>
@@ -326,17 +326,29 @@
     <t>OK</t>
   </si>
   <si>
-    <t>validar botones exportar - NC</t>
+    <t>Al eliminar una línea no borra la Orden y recarga sin rango de fechas</t>
   </si>
   <si>
     <t>Hay dudas con las porciones que se devuelven a Central.</t>
+  </si>
+  <si>
+    <t>Validar estimación de costos y cantidades</t>
+  </si>
+  <si>
+    <t>Validar estado de la NC cuando es rechazada.</t>
+  </si>
+  <si>
+    <t>Validar acciones y estados</t>
+  </si>
+  <si>
+    <t>Validar inventario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +366,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,12 +409,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -438,13 +462,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -461,26 +486,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="5">
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="3" builtinId="53"/>
+    <cellStyle name="Texto explicativo" xfId="4" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,7 +528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -760,13 +792,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="65" style="2" customWidth="1"/>
@@ -774,25 +806,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="9">
         <f>A4/49</f>
-        <v>0.97959183673469385</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <f>SUM(A5:A53)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <f>IF(D5="OK",1,0)</f>
         <v>1</v>
       </c>
@@ -809,7 +841,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <f t="shared" ref="A6:A53" si="0">IF(D6="OK",1,0)</f>
         <v>1</v>
       </c>
@@ -826,7 +858,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -843,7 +875,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -860,7 +892,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -877,7 +909,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -894,24 +926,24 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>99</v>
+      <c r="D11" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -928,24 +960,23 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -962,41 +993,39 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="11">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>99</v>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1013,7 +1042,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1030,7 +1059,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1047,7 +1076,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1064,7 +1093,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1081,14 +1110,14 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1098,7 +1127,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1115,7 +1144,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1132,24 +1161,24 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>99</v>
+      <c r="D25" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1166,7 +1195,7 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1183,24 +1212,23 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1217,7 +1245,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1234,7 +1262,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1251,7 +1279,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1268,7 +1296,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1285,7 +1313,7 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1302,7 +1330,7 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1319,7 +1347,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1336,26 +1364,26 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1372,41 +1400,39 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="11">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>100</v>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1423,7 +1449,7 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1440,7 +1466,7 @@
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1457,7 +1483,7 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1474,7 +1500,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1491,24 +1517,24 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>99</v>
+      <c r="D46" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1525,7 +1551,7 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1542,24 +1568,22 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1576,24 +1600,22 @@
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1610,18 +1632,18 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>99</v>
+      <c r="D53" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
